--- a/src/test/resources/irs.xlsx
+++ b/src/test/resources/irs.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,11 +526,11 @@
         <v>41640</v>
       </c>
       <c r="G13" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" ref="G13:G25" si="0">FixedRate/12*Nominal</f>
         <v>5208.333333333333</v>
       </c>
       <c r="H13" s="4">
-        <f>C13/12*Nominal</f>
+        <f t="shared" ref="H13:H25" si="1">C13/12*Nominal</f>
         <v>5208.333333333333</v>
       </c>
       <c r="I13" s="7">
@@ -549,15 +549,15 @@
         <v>41671</v>
       </c>
       <c r="G14" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H14" s="4">
-        <f>C14/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5291.666666666667</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" ref="I14:I25" si="0">G14-H14</f>
+        <f t="shared" ref="I14:I25" si="2">G14-H14</f>
         <v>-83.33333333333394</v>
       </c>
     </row>
@@ -572,15 +572,15 @@
         <v>41699</v>
       </c>
       <c r="G15" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H15" s="4">
-        <f>C15/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5375</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-166.66666666666697</v>
       </c>
     </row>
@@ -595,15 +595,15 @@
         <v>41730</v>
       </c>
       <c r="G16" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H16" s="4">
-        <f>C16/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5458.333333333333</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-250</v>
       </c>
     </row>
@@ -618,15 +618,15 @@
         <v>41760</v>
       </c>
       <c r="G17" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H17" s="4">
-        <f>C17/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5358.333333333333</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
     </row>
@@ -641,15 +641,15 @@
         <v>41791</v>
       </c>
       <c r="G18" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H18" s="4">
-        <f>C18/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5183.333333333333</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -664,15 +664,15 @@
         <v>41821</v>
       </c>
       <c r="G19" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H19" s="4">
-        <f>C19/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5016.666666666667</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>191.66666666666606</v>
       </c>
     </row>
@@ -687,15 +687,15 @@
         <v>41852</v>
       </c>
       <c r="G20" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H20" s="4">
-        <f>C20/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>4875</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>333.33333333333303</v>
       </c>
     </row>
@@ -710,15 +710,15 @@
         <v>41883</v>
       </c>
       <c r="G21" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H21" s="4">
-        <f>C21/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>4816.6666666666661</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>391.66666666666697</v>
       </c>
     </row>
@@ -733,15 +733,15 @@
         <v>41913</v>
       </c>
       <c r="G22" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H22" s="4">
-        <f>C22/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>4850</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>358.33333333333303</v>
       </c>
     </row>
@@ -756,15 +756,15 @@
         <v>41944</v>
       </c>
       <c r="G23" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H23" s="4">
-        <f>C23/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5099.9999999999991</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>108.33333333333394</v>
       </c>
     </row>
@@ -779,40 +779,25 @@
         <v>41974</v>
       </c>
       <c r="G24" s="4">
-        <f>FixedRate/12*Nominal</f>
+        <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H24" s="4">
-        <f>C24/12*Nominal</f>
+        <f t="shared" si="1"/>
         <v>5125</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83.33333333333303</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="1">
-        <v>42005</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="F25" s="8">
-        <v>42005</v>
-      </c>
-      <c r="G25" s="4">
-        <f>FixedRate/12*Nominal</f>
-        <v>5208.333333333333</v>
-      </c>
-      <c r="H25" s="4">
-        <f>C25/12*Nominal</f>
-        <v>5058.333333333333</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
